--- a/Adopter l'approche Agile/ms project/chemincritique.xlsx
+++ b/Adopter l'approche Agile/ms project/chemincritique.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\DEV201\Adopter l'approche Agile\ms project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099F1255-BEA2-4129-B0AA-699DBDE3D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACCD346-B526-4552-BD3F-DD9A957000BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>tache</t>
   </si>
@@ -93,12 +93,21 @@
   </si>
   <si>
     <t>h,e</t>
+  </si>
+  <si>
+    <t>5 - Si la date de début du projet est 15/01/2023 et qu'on ne travail pas les samedis et les dimanches le projet se termine quand?</t>
+  </si>
+  <si>
+    <t>6-intégrez les jours fériers du Maroc et recalculer la date de fin du projet</t>
+  </si>
+  <si>
+    <t>7-Faites le meme travail sur msProject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,21 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A6:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C8:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -469,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -479,8 +486,9 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -494,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -508,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -522,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -536,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -550,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -564,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -578,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -592,7 +600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -606,24 +614,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
